--- a/Assets/StreamingAssets/levels/LevelTest.xlsx
+++ b/Assets/StreamingAssets/levels/LevelTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBstudio\Documents\GitHub\Project\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6E9B5F-B2F6-40C4-804D-6DB361BC5D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70C7E04-3DED-4368-BAE7-F420016E1775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12300" yWindow="2796" windowWidth="16452" windowHeight="12192" activeTab="1" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
+    <workbookView xWindow="12300" yWindow="2796" windowWidth="16452" windowHeight="12192" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Width</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>NextLevel</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>BgTest.png</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36E9A83-1242-0D41-9838-6F50983CC2CF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -430,6 +436,14 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -442,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AEF038-7884-4C45-8363-3DD22CC55CD7}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
